--- a/data/trans_orig/P07B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P07B_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10876</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5515</v>
+        <v>5934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19792</v>
+        <v>21645</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01574589055440898</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007985142701650752</v>
+        <v>0.008590624669600746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02865449590366593</v>
+        <v>0.03133753720271969</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -762,19 +762,19 @@
         <v>10975</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6910</v>
+        <v>6438</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17320</v>
+        <v>16380</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01494892405772726</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009411771245097469</v>
+        <v>0.008768773795009146</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02359103713149864</v>
+        <v>0.02231102408070262</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -783,19 +783,19 @@
         <v>21851</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14447</v>
+        <v>14769</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32501</v>
+        <v>32845</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01533525045701764</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01013907069533265</v>
+        <v>0.010365104420771</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02280927955079124</v>
+        <v>0.02305090633654448</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>33368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23947</v>
+        <v>23817</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46650</v>
+        <v>46297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04831004227889255</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03467069086720576</v>
+        <v>0.03448123920075356</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06753979344924153</v>
+        <v>0.06702746700466816</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -833,19 +833,19 @@
         <v>52058</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43298</v>
+        <v>42567</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63660</v>
+        <v>63595</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07090605432781205</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05897449729598499</v>
+        <v>0.05797884349484953</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08670963008862294</v>
+        <v>0.08662030913263881</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>143</v>
@@ -854,19 +854,19 @@
         <v>85426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72457</v>
+        <v>71315</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>103787</v>
+        <v>102637</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05995272566277101</v>
+        <v>0.059952725662771</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05085127523093395</v>
+        <v>0.05004951832998088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07283857123221942</v>
+        <v>0.07203181656158367</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>299500</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>271968</v>
+        <v>269626</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>327248</v>
+        <v>326736</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.433611108699825</v>
+        <v>0.4336111086998251</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3937516922391334</v>
+        <v>0.3903609316892416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4737852034916777</v>
+        <v>0.4730430967688601</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>589</v>
@@ -904,19 +904,19 @@
         <v>320153</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>299581</v>
+        <v>297895</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>343821</v>
+        <v>342781</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4360681638499308</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.408047972377433</v>
+        <v>0.4057523587973956</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4683067815459027</v>
+        <v>0.4668893698041249</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>925</v>
@@ -925,19 +925,19 @@
         <v>619652</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>585724</v>
+        <v>584262</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>657672</v>
+        <v>653996</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4348771159540024</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4110666996893126</v>
+        <v>0.4100403462621971</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4615602784489521</v>
+        <v>0.4589800332474465</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>245610</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>218124</v>
+        <v>216758</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>273838</v>
+        <v>273866</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3555910091020526</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3157971099793199</v>
+        <v>0.3138192636609061</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3964580204659157</v>
+        <v>0.3964992487645633</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>414</v>
@@ -975,19 +975,19 @@
         <v>256023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>233801</v>
+        <v>234873</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>278088</v>
+        <v>278883</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3487200449690498</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3184524090046699</v>
+        <v>0.319912535765397</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3787740346572704</v>
+        <v>0.3798565405855347</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>675</v>
@@ -996,19 +996,19 @@
         <v>501633</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>466916</v>
+        <v>470989</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>537790</v>
+        <v>535300</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3520507180201862</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.327685527857454</v>
+        <v>0.3305440746022806</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3774260458828855</v>
+        <v>0.375678491825469</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>101356</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>78766</v>
+        <v>80129</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>129714</v>
+        <v>125629</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1467419493648209</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1140357765489486</v>
+        <v>0.1160103109957169</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1877977499708146</v>
+        <v>0.1818833208628246</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>117</v>
@@ -1046,19 +1046,19 @@
         <v>94971</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>79146</v>
+        <v>78269</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>114202</v>
+        <v>113686</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1293568127954799</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1078014331584859</v>
+        <v>0.1066072202784609</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1555509407432993</v>
+        <v>0.1548478328753342</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>196</v>
@@ -1067,19 +1067,19 @@
         <v>196327</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>167223</v>
+        <v>169361</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>229646</v>
+        <v>230780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1377841899060228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1173587898524151</v>
+        <v>0.118858849728003</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1611677394678087</v>
+        <v>0.1619632576363181</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>6499</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3110</v>
+        <v>3062</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12923</v>
+        <v>12076</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006195543466901664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00296543218664794</v>
+        <v>0.002919162017347634</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01232042451193084</v>
+        <v>0.01151328665199839</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1192,19 +1192,19 @@
         <v>13430</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8303</v>
+        <v>9070</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21701</v>
+        <v>21258</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01254134813241465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007754014075205401</v>
+        <v>0.008469677129199688</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02026547437875574</v>
+        <v>0.01985133845471587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1213,19 +1213,19 @@
         <v>19928</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13757</v>
+        <v>13091</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28814</v>
+        <v>29506</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.009401257530734453</v>
+        <v>0.009401257530734451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006489799328628206</v>
+        <v>0.006175718391988497</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01359302145031798</v>
+        <v>0.01391954354692208</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>39747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27740</v>
+        <v>28938</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55997</v>
+        <v>54961</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03789311246196125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0264462120064387</v>
+        <v>0.02758885075872395</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05338531058112531</v>
+        <v>0.05239832064112727</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -1263,19 +1263,19 @@
         <v>84147</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>70751</v>
+        <v>71267</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>99266</v>
+        <v>98263</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07858007469652095</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06607069195329546</v>
+        <v>0.06655238513134726</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09269963811003494</v>
+        <v>0.091763003364897</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>175</v>
@@ -1284,19 +1284,19 @@
         <v>123893</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>106984</v>
+        <v>105810</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>144566</v>
+        <v>143031</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05844697031371687</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05047018499660635</v>
+        <v>0.04991632357042832</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06819942623458136</v>
+        <v>0.06747502986450186</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>403822</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>368831</v>
+        <v>368456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>438183</v>
+        <v>433156</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.384989114000888</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3516307675583908</v>
+        <v>0.3512729980696715</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4177477781711027</v>
+        <v>0.4129556685984592</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>708</v>
@@ -1334,19 +1334,19 @@
         <v>469649</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>441656</v>
+        <v>440610</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>497678</v>
+        <v>496590</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4385811708120816</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4124393799975065</v>
+        <v>0.4114628725127059</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4647554930215151</v>
+        <v>0.4637393821242741</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1131</v>
@@ -1355,19 +1355,19 @@
         <v>873471</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>829819</v>
+        <v>827031</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>916864</v>
+        <v>920202</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4120622464537415</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3914693390115576</v>
+        <v>0.3901541201207477</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4325331083490866</v>
+        <v>0.4341075355423934</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>401529</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>367796</v>
+        <v>367314</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>439143</v>
+        <v>437031</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3828035782689637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3506437023418808</v>
+        <v>0.350184473595818</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4186635039415115</v>
+        <v>0.4166500917971977</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>472</v>
@@ -1405,19 +1405,19 @@
         <v>351721</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>322254</v>
+        <v>321589</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>381623</v>
+        <v>382003</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3284535756884367</v>
+        <v>0.3284535756884368</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3009361800862214</v>
+        <v>0.3003149581958525</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3563775678888115</v>
+        <v>0.3567326848358567</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>818</v>
@@ -1426,19 +1426,19 @@
         <v>753250</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>711207</v>
+        <v>704893</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>801647</v>
+        <v>801760</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3553475538834954</v>
+        <v>0.3553475538834953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3355137457955495</v>
+        <v>0.3325349893635564</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3781792058593977</v>
+        <v>0.3782325610992398</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>197321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167062</v>
+        <v>167904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228510</v>
+        <v>228815</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1881186518012854</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1592713939517724</v>
+        <v>0.1600735906210913</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2178530887952137</v>
+        <v>0.218143655229307</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>181</v>
@@ -1476,19 +1476,19 @@
         <v>151892</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>131627</v>
+        <v>131736</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175305</v>
+        <v>176590</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1418438306705461</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1229199442730586</v>
+        <v>0.123021670498729</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1637084651874537</v>
+        <v>0.1649079336329828</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>325</v>
@@ -1497,19 +1497,19 @@
         <v>349213</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>311696</v>
+        <v>312994</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>386405</v>
+        <v>393708</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1647419718183119</v>
+        <v>0.1647419718183118</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1470432391210292</v>
+        <v>0.1476557853967902</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1822875689657973</v>
+        <v>0.1857326819222885</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>9039</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3872</v>
+        <v>4077</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16732</v>
+        <v>16744</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01125606921523362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004821270464989166</v>
+        <v>0.005076713797806242</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02083491686145367</v>
+        <v>0.02084929254443462</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1622,19 +1622,19 @@
         <v>6530</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3209</v>
+        <v>3109</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11885</v>
+        <v>11997</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008039691696514134</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003950572214760708</v>
+        <v>0.003827832599546357</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01463151416470178</v>
+        <v>0.01477047946171472</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1643,19 +1643,19 @@
         <v>15570</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9088</v>
+        <v>9157</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24882</v>
+        <v>23767</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009638735382236415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005625844992577823</v>
+        <v>0.005668944545038292</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01540344894105344</v>
+        <v>0.01471310959615972</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>43685</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31601</v>
+        <v>31644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63323</v>
+        <v>60430</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05439778856403316</v>
+        <v>0.05439778856403318</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03935012233117879</v>
+        <v>0.03940392903442456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07885077451748014</v>
+        <v>0.07524799908317986</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -1693,19 +1693,19 @@
         <v>67001</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>54052</v>
+        <v>52949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83495</v>
+        <v>82218</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08248749069552661</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06654577678629379</v>
+        <v>0.06518738563164145</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.102793206730318</v>
+        <v>0.1012208507961429</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>129</v>
@@ -1714,19 +1714,19 @@
         <v>110687</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>91672</v>
+        <v>91692</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133851</v>
+        <v>138866</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06852250662081308</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05675101812513503</v>
+        <v>0.05676341262470047</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08286312488352152</v>
+        <v>0.08596744636531872</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>301276</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>271917</v>
+        <v>271871</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>334258</v>
+        <v>333833</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3751540720149202</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3385952471758008</v>
+        <v>0.338538827634915</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4162242391391161</v>
+        <v>0.4156943757947502</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>478</v>
@@ -1764,19 +1764,19 @@
         <v>353057</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>326875</v>
+        <v>325528</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>379694</v>
+        <v>377033</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4346608501298445</v>
+        <v>0.4346608501298444</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4024269288784055</v>
+        <v>0.400768662389169</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4674542931567472</v>
+        <v>0.4641787446295766</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>766</v>
@@ -1785,19 +1785,19 @@
         <v>654333</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>615915</v>
+        <v>615231</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>696869</v>
+        <v>696255</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4050766557221466</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3812933093795229</v>
+        <v>0.3808698007248494</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4314088389927436</v>
+        <v>0.4310290510237273</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>294644</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>264551</v>
+        <v>265350</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>330276</v>
+        <v>327249</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.366895415448052</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.329423569115558</v>
+        <v>0.3304181741631665</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4112649053672668</v>
+        <v>0.4074961217517161</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>373</v>
@@ -1835,19 +1835,19 @@
         <v>292399</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>267733</v>
+        <v>268013</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>317049</v>
+        <v>318812</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3599830602718463</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3296149380733857</v>
+        <v>0.3299598618689827</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3903296524213598</v>
+        <v>0.392500738780988</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>609</v>
@@ -1856,19 +1856,19 @@
         <v>587043</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>546370</v>
+        <v>543535</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>631577</v>
+        <v>628119</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3634195840734372</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.338239830223871</v>
+        <v>0.3364851758371835</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3909887827894749</v>
+        <v>0.388847974244242</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>154428</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>127000</v>
+        <v>124781</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>186699</v>
+        <v>183843</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.192296654757761</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1581422179047457</v>
+        <v>0.1553788569919604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2324801610976006</v>
+        <v>0.2289242075393011</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>96</v>
@@ -1906,19 +1906,19 @@
         <v>93271</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>73858</v>
+        <v>75105</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>113253</v>
+        <v>115381</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1148289072062685</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09092936225241388</v>
+        <v>0.09246384781180589</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1394291685849827</v>
+        <v>0.1420492672114551</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>201</v>
@@ -1927,19 +1927,19 @@
         <v>247699</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>212287</v>
+        <v>216310</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>284625</v>
+        <v>287069</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1533425182013668</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1314197914517123</v>
+        <v>0.1339105695240986</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1762020188561494</v>
+        <v>0.1777153206540621</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>8891</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4433</v>
+        <v>4596</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15774</v>
+        <v>16040</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.00898061339416077</v>
+        <v>0.008980613394160768</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004477932714616661</v>
+        <v>0.004642373084915674</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01593208284644804</v>
+        <v>0.01620124531128978</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -2052,19 +2052,19 @@
         <v>20431</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13654</v>
+        <v>13201</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30373</v>
+        <v>30259</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01825800534306947</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01220180614796883</v>
+        <v>0.01179669167408078</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02714168377865573</v>
+        <v>0.02703995719503791</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -2073,19 +2073,19 @@
         <v>29323</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20052</v>
+        <v>19596</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>41299</v>
+        <v>40826</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01390298206395798</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009507289558749426</v>
+        <v>0.009290976391890016</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01958136171337439</v>
+        <v>0.01935684883277412</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>67920</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52782</v>
+        <v>52627</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>84349</v>
+        <v>86504</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06860195282816205</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05331169671993738</v>
+        <v>0.0531555469171702</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08519527965504393</v>
+        <v>0.08737275665025845</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>159</v>
@@ -2123,19 +2123,19 @@
         <v>106223</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>90305</v>
+        <v>91173</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>122903</v>
+        <v>124812</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.09492315147803666</v>
+        <v>0.09492315147803665</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0806981431393281</v>
+        <v>0.08147452723105629</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1098288497509606</v>
+        <v>0.111534682318684</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>230</v>
@@ -2144,19 +2144,19 @@
         <v>174143</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>152324</v>
+        <v>149449</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>200383</v>
+        <v>200228</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08256736943437668</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.072222295208496</v>
+        <v>0.07085903589033667</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09500841456534945</v>
+        <v>0.0949353315209072</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>480581</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>450187</v>
+        <v>445714</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>514616</v>
+        <v>516842</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.48540508094317</v>
+        <v>0.4854050809431699</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4547059968009344</v>
+        <v>0.4501875357378395</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5197810948884349</v>
+        <v>0.5220295281256819</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>780</v>
@@ -2194,19 +2194,19 @@
         <v>542065</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>511861</v>
+        <v>512719</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>572253</v>
+        <v>571543</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4844011448243473</v>
+        <v>0.4844011448243472</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4574101441447743</v>
+        <v>0.4581767021266652</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5113784316164296</v>
+        <v>0.5107437844229169</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1300</v>
@@ -2215,19 +2215,19 @@
         <v>1022646</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>976634</v>
+        <v>978004</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1068657</v>
+        <v>1066990</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4848724157582791</v>
+        <v>0.484872415758279</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4630562231380956</v>
+        <v>0.4637057279229367</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5066876744657535</v>
+        <v>0.5058973705025053</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>301867</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>270899</v>
+        <v>270441</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>334702</v>
+        <v>334656</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3048972385204171</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2736180430354785</v>
+        <v>0.2731560422818954</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.338062008937536</v>
+        <v>0.3380155877630702</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>455</v>
@@ -2265,19 +2265,19 @@
         <v>328005</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>301032</v>
+        <v>302513</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>356604</v>
+        <v>356644</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2931130174184103</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2690090362178119</v>
+        <v>0.2703325287259922</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3186689330275143</v>
+        <v>0.3187052367056502</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>756</v>
@@ -2286,19 +2286,19 @@
         <v>629873</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>586582</v>
+        <v>589731</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>670728</v>
+        <v>671754</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2986448045314333</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2781192554088194</v>
+        <v>0.2796119095110885</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3180157631992152</v>
+        <v>0.3185021287921674</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>130802</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>106829</v>
+        <v>106467</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>156578</v>
+        <v>159695</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1321151143140901</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1079015972223612</v>
+        <v>0.1075358733325451</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1581491980744829</v>
+        <v>0.1612982209684672</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>141</v>
@@ -2336,19 +2336,19 @@
         <v>122316</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>103502</v>
+        <v>101719</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>146840</v>
+        <v>145341</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1093046809361364</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09249169122401461</v>
+        <v>0.09089878154017456</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1312196565499343</v>
+        <v>0.1298795165236214</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>244</v>
@@ -2357,19 +2357,19 @@
         <v>253119</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>224372</v>
+        <v>223631</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>289707</v>
+        <v>291717</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.120012428211953</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1063824050265088</v>
+        <v>0.1060314155902833</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1373602850394755</v>
+        <v>0.1383132619782719</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>35305</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>24609</v>
+        <v>25345</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>49574</v>
+        <v>49671</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009993670952906621</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006965992866964981</v>
+        <v>0.007174144885963428</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01403272878062168</v>
+        <v>0.01406007356581544</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>80</v>
@@ -2482,19 +2482,19 @@
         <v>51367</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>40681</v>
+        <v>40846</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>65564</v>
+        <v>64736</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01374795326929336</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01088796970883934</v>
+        <v>0.01093223784753939</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01754780500235779</v>
+        <v>0.01732606918377998</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>119</v>
@@ -2503,19 +2503,19 @@
         <v>86672</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>72863</v>
+        <v>70601</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>107570</v>
+        <v>105536</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0119233776810928</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01002365463786939</v>
+        <v>0.009712520059881852</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01479824843906273</v>
+        <v>0.01451847137187185</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>184721</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>159762</v>
+        <v>157023</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>217788</v>
+        <v>215250</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05228785430817971</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04522292014108476</v>
+        <v>0.04444776196820412</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06164796034603631</v>
+        <v>0.06092954771199208</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>482</v>
@@ -2553,19 +2553,19 @@
         <v>309428</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>279897</v>
+        <v>283821</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>336563</v>
+        <v>337582</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08281641156048845</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07491259585425006</v>
+        <v>0.07596284977311876</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09007884646534353</v>
+        <v>0.09035146795603571</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>677</v>
@@ -2574,19 +2574,19 @@
         <v>494149</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>457228</v>
+        <v>455982</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>537374</v>
+        <v>532906</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06797957841599682</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0629003404488456</v>
+        <v>0.06272891945447605</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07392603036427868</v>
+        <v>0.07331136619580159</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>1485178</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1426485</v>
+        <v>1420381</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1553099</v>
+        <v>1547789</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4204014858311833</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4037874883206991</v>
+        <v>0.4020594940036309</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4396273416821473</v>
+        <v>0.4381242051699805</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2555</v>
@@ -2624,19 +2624,19 @@
         <v>1684924</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1631503</v>
+        <v>1631072</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1740514</v>
+        <v>1734799</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4509583656997833</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4366605128080675</v>
+        <v>0.4365452459964001</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4658367777720065</v>
+        <v>0.4643070111112807</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4122</v>
@@ -2645,19 +2645,19 @@
         <v>3170102</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3085901</v>
+        <v>3082945</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3252143</v>
+        <v>3250290</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4361077678061536</v>
+        <v>0.4361077678061535</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4245242192062803</v>
+        <v>0.4241176944928452</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4473940185952612</v>
+        <v>0.4471390758290929</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>1243650</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1185904</v>
+        <v>1178686</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1311248</v>
+        <v>1303165</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3520334539879506</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.335687585442262</v>
+        <v>0.3336442629136062</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3711678815006047</v>
+        <v>0.3688799756982187</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1714</v>
@@ -2695,19 +2695,19 @@
         <v>1228149</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1180096</v>
+        <v>1181570</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1278211</v>
+        <v>1278647</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3287056370548624</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3158446209080439</v>
+        <v>0.3162392464816942</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.342104552348473</v>
+        <v>0.3422211020689226</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2858</v>
@@ -2716,19 +2716,19 @@
         <v>2471799</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2385229</v>
+        <v>2390942</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2551214</v>
+        <v>2551048</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3400429211787396</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.328133614367172</v>
+        <v>0.3289194465840975</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.350967871451512</v>
+        <v>0.3509450607736145</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>583907</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>524937</v>
+        <v>529750</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>646183</v>
+        <v>642622</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1652835349197799</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1485909676194567</v>
+        <v>0.1499533886285315</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1829116084339101</v>
+        <v>0.1819036139161762</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>535</v>
@@ -2766,19 +2766,19 @@
         <v>462450</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>422922</v>
+        <v>425175</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>501171</v>
+        <v>502701</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1237716324155724</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1131922404061017</v>
+        <v>0.1137952314680466</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1341350786044624</v>
+        <v>0.1345444077362386</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>966</v>
@@ -2787,19 +2787,19 @@
         <v>1046358</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>981797</v>
+        <v>981476</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1128256</v>
+        <v>1119715</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1439463549180173</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1350648797602086</v>
+        <v>0.1350207007429348</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1552130179931594</v>
+        <v>0.1540380499437627</v>
       </c>
     </row>
     <row r="33">
